--- a/queries.xlsx
+++ b/queries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keert\Desktop\IR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvtej\Documents\Fall2021\IR\MLIR_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD9F91D-6464-4866-A3CA-3DBE05E5E294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA9A859-9E30-4EC0-AAC9-8777FF86120B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="274">
   <si>
     <t>Query</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Wikipedia English Search Result</t>
-  </si>
-  <si>
     <t>Chemical compounds types</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Albert_Einstein%27s_brain</t>
-  </si>
-  <si>
-    <t>family, wealth, spouse, children and his achievementss</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Mileva_Mari%C4%87</t>
@@ -880,12 +874,18 @@
   <si>
     <t>https://en.wikipedia.org/wiki/How_to_Dismantle_an_Atomic_Bomb</t>
   </si>
+  <si>
+    <t>Relevance Judgement score</t>
+  </si>
+  <si>
+    <t>Wikipedia English Search Results</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +905,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -931,16 +939,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1224,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,26 +1245,29 @@
     <col min="4" max="4" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1263,7 +1275,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1271,7 +1283,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1279,7 +1291,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1287,7 +1299,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1295,13 +1307,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1309,7 +1321,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1317,7 +1329,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1325,7 +1337,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1333,21 +1345,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1355,7 +1367,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1363,7 +1375,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1371,7 +1383,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1379,21 +1391,21 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1401,7 +1413,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1409,7 +1421,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1417,7 +1429,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1425,21 +1437,21 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1447,7 +1459,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1455,7 +1467,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1463,7 +1475,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C36" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1471,21 +1483,21 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1493,7 +1505,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C42" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1501,7 +1513,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C43" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1509,7 +1521,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C44" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1517,21 +1529,21 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C45" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
         <v>84</v>
-      </c>
-      <c r="B49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" t="s">
-        <v>86</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1539,7 +1551,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C50" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -1547,7 +1559,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C51" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1555,7 +1567,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C52" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1563,21 +1575,21 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C53" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
         <v>96</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1585,7 +1597,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C58" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -1593,7 +1605,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -1601,7 +1613,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C60" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1609,21 +1621,21 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C61" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B64" t="s">
-        <v>110</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1631,7 +1643,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -1639,7 +1651,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -1647,7 +1659,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C67" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1655,7 +1667,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C68" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1663,13 +1675,13 @@
     </row>
     <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1677,7 +1689,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C71" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1685,7 +1697,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C72" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1693,7 +1705,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C73" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -1701,21 +1713,21 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C74" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -1723,7 +1735,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -1731,7 +1743,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C80" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1739,7 +1751,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C81" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1747,21 +1759,21 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C82" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>142</v>
-      </c>
-      <c r="B88" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -1769,7 +1781,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C89" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1777,7 +1789,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C90" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -1785,7 +1797,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C91" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1793,7 +1805,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C92" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -1801,13 +1813,13 @@
     </row>
     <row r="96" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>225</v>
+        <v>154</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -1815,7 +1827,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -1823,7 +1835,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C98" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -1831,7 +1843,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C99" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -1839,7 +1851,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C100" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -1847,13 +1859,13 @@
     </row>
     <row r="103" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>162</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -1861,7 +1873,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C104" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -1869,7 +1881,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C105" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -1877,7 +1889,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C106" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -1885,21 +1897,21 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C107" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>171</v>
+      <c r="A109" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -1907,7 +1919,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C110" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -1915,7 +1927,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C111" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -1923,7 +1935,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C112" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -1931,7 +1943,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C113" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -1939,13 +1951,13 @@
     </row>
     <row r="116" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>177</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C116" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -1953,7 +1965,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C117" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -1961,7 +1973,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C118" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -1969,7 +1981,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C119" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -1977,7 +1989,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C120" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -1985,13 +1997,13 @@
     </row>
     <row r="123" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>184</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -1999,7 +2011,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -2007,7 +2019,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -2015,7 +2027,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -2023,7 +2035,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -2031,13 +2043,13 @@
     </row>
     <row r="129" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>192</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -2045,7 +2057,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C130" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -2053,7 +2065,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C131" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -2061,7 +2073,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C132" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2069,7 +2081,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C133" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -2077,13 +2089,13 @@
     </row>
     <row r="136" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>199</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -2091,7 +2103,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C137" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -2099,7 +2111,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C138" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -2107,7 +2119,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C139" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -2115,7 +2127,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C140" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -2123,13 +2135,13 @@
     </row>
     <row r="143" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>261</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>207</v>
+        <v>259</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C143" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -2137,7 +2149,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -2145,7 +2157,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C145" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2153,7 +2165,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C146" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -2161,7 +2173,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -2169,13 +2181,13 @@
     </row>
     <row r="149" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>212</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C149" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -2183,7 +2195,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C150" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -2191,7 +2203,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C151" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -2199,7 +2211,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C152" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -2207,7 +2219,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C153" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -2215,13 +2227,13 @@
     </row>
     <row r="159" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>219</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="C159" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -2229,7 +2241,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C160" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -2237,7 +2249,7 @@
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C161" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -2245,7 +2257,7 @@
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C162" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -2253,7 +2265,7 @@
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -2347,7 +2359,7 @@
   <dimension ref="A1:Y164"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2358,26 +2370,29 @@
     <col min="4" max="4" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
+      <c r="D1" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2385,7 +2400,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2393,7 +2408,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2401,7 +2416,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2409,7 +2424,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2417,13 +2432,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2431,7 +2446,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2439,7 +2454,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2447,7 +2462,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2455,7 +2470,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2463,13 +2478,13 @@
     </row>
     <row r="17" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2477,7 +2492,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2485,7 +2500,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2493,7 +2508,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2501,21 +2516,21 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2526,7 +2541,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2534,7 +2549,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2545,7 +2560,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2553,21 +2568,21 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2575,7 +2590,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2583,7 +2598,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2591,7 +2606,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2599,21 +2614,21 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2621,7 +2636,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2629,7 +2644,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2637,7 +2652,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2645,21 +2660,21 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>82</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
+      <c r="B46" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2667,7 +2682,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2675,7 +2690,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C48" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2683,7 +2698,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2691,21 +2706,21 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" t="s">
-        <v>97</v>
-      </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2713,7 +2728,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2721,7 +2736,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2729,7 +2744,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2737,21 +2752,21 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B59" t="s">
-        <v>110</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2759,7 +2774,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C60" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2767,7 +2782,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C61" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2775,7 +2790,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C62" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2783,21 +2798,21 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" t="s">
-        <v>121</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2805,7 +2820,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C69" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2813,7 +2828,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C70" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2821,7 +2836,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C71" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2829,21 +2844,21 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C72" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -2851,7 +2866,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -2859,7 +2874,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C78" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2867,7 +2882,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C79" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -2875,21 +2890,21 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C80" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -2897,7 +2912,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C88" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -2905,7 +2920,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C89" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -2913,7 +2928,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C90" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -2921,7 +2936,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C91" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2929,13 +2944,13 @@
     </row>
     <row r="95" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -2943,7 +2958,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C96" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -2951,7 +2966,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C97" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2959,7 +2974,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C98" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2967,7 +2982,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C99" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2975,13 +2990,13 @@
     </row>
     <row r="103" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -2989,7 +3004,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C104" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -2997,7 +3012,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C105" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -3005,7 +3020,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C106" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3013,21 +3028,21 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C107" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
+      <c r="C110" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3035,7 +3050,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -3043,7 +3058,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C112" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3051,7 +3066,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C113" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -3059,7 +3074,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C114" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3067,13 +3082,13 @@
     </row>
     <row r="118" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -3081,7 +3096,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C119" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3089,7 +3104,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C120" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -3097,7 +3112,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C121" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3105,7 +3120,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C122" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -3113,13 +3128,13 @@
     </row>
     <row r="125" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -3127,7 +3142,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C126" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -3135,7 +3150,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C127" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -3143,7 +3158,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C128" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3151,7 +3166,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C129" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -3159,13 +3174,13 @@
     </row>
     <row r="133" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>190</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -3173,7 +3188,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C134" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -3181,7 +3196,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C135" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -3189,7 +3204,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C136" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -3197,7 +3212,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C137" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -3205,13 +3220,13 @@
     </row>
     <row r="140" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>197</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -3219,7 +3234,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C141" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -3227,7 +3242,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C142" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -3235,7 +3250,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C143" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -3243,21 +3258,21 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C144" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="4" t="s">
+      <c r="C147" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -3265,7 +3280,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C148" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -3273,7 +3288,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3281,7 +3296,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C150" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -3289,7 +3304,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C151" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -3297,13 +3312,13 @@
     </row>
     <row r="154" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>210</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -3311,7 +3326,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C155" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -3319,7 +3334,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C156" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -3327,7 +3342,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C157" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -3335,7 +3350,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C158" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -3343,13 +3358,13 @@
     </row>
     <row r="160" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>219</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -3357,7 +3372,7 @@
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C161" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -3365,7 +3380,7 @@
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C162" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -3373,7 +3388,7 @@
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C163" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -3381,7 +3396,7 @@
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C164" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -3509,7 +3524,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3517,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3525,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3533,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
